--- a/y2e/simple1.xlsx
+++ b/y2e/simple1.xlsx
@@ -14,48 +14,216 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>7.33</t>
-  </si>
-  <si>
-    <t>22.33</t>
-  </si>
-  <si>
-    <t>304.47</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9.99</t>
+  </si>
+  <si>
+    <t>14.19</t>
+  </si>
+  <si>
+    <t>20.189999</t>
+  </si>
+  <si>
+    <t>25.07</t>
+  </si>
+  <si>
+    <t>27.56</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Betaling CA + Zakgeld</t>
+  </si>
+  <si>
+    <t>2200,00€</t>
+  </si>
+  <si>
+    <t>0,00€</t>
+  </si>
+  <si>
+    <t>2-FR</t>
+  </si>
+  <si>
+    <t>Av</t>
+  </si>
+  <si>
+    <t>FR.Av</t>
+  </si>
+  <si>
+    <t>Vervoer vliegveld intermodal</t>
+  </si>
+  <si>
+    <t>3,00€</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>FR.12</t>
+  </si>
+  <si>
+    <t>Cadeau Dames afscheid</t>
+  </si>
+  <si>
+    <t>4,50€</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>FR.15</t>
+  </si>
+  <si>
+    <t>62.559998</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>Cadeau Thomas</t>
+  </si>
+  <si>
+    <t>6,90€</t>
+  </si>
+  <si>
+    <t>69.759995</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>Ticket (Later geannuleerd)</t>
+  </si>
+  <si>
+    <t>37,70€</t>
+  </si>
+  <si>
+    <t>75.45999</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>Fiets repair kit (terugbetaald later)</t>
+  </si>
+  <si>
+    <t>6,00€</t>
+  </si>
+  <si>
+    <t>Lenzen</t>
+  </si>
+  <si>
+    <t>52,00€</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>FR.10</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>Zorggeld</t>
+  </si>
+  <si>
+    <t>124,00€</t>
+  </si>
+  <si>
+    <t>Anulering reis</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>Studentenfinanciering</t>
+  </si>
+  <si>
+    <t>466,69€</t>
+  </si>
+  <si>
+    <t>81.009995</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>123,95€</t>
+  </si>
+  <si>
+    <t>5.08</t>
+  </si>
+  <si>
+    <t>98.009995</t>
+  </si>
+  <si>
+    <t>117.509995</t>
+  </si>
+  <si>
+    <t>119.259995</t>
+  </si>
+  <si>
+    <t>126.24999</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>Cadeau verjaardag Moeder</t>
+  </si>
+  <si>
+    <t>19,00€</t>
+  </si>
+  <si>
+    <t>126.74999</t>
+  </si>
+  <si>
+    <t>130.25</t>
+  </si>
+  <si>
+    <t>134.08</t>
+  </si>
+  <si>
+    <t>149.08</t>
+  </si>
+  <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>Inschrijfgeld Aken</t>
+  </si>
+  <si>
+    <t>304,47€</t>
   </si>
   <si>
     <t>02/08/2024</t>
   </si>
   <si>
-    <t>FR</t>
-  </si>
-  <si>
     <t>2,95 transfer geld</t>
   </si>
   <si>
-    <t>0,00€</t>
-  </si>
-  <si>
     <t>2,95€</t>
   </si>
   <si>
-    <t>2-FR</t>
-  </si>
-  <si>
     <t>13</t>
   </si>
   <si>
     <t>FR.13</t>
   </si>
   <si>
-    <t>315.22</t>
+    <t>15.83</t>
   </si>
   <si>
     <t>Benzine</t>
@@ -64,12 +232,6 @@
     <t>55,41€</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>FR.12</t>
-  </si>
-  <si>
     <t>Contant nodig voor reis</t>
   </si>
   <si>
@@ -82,7 +244,13 @@
     <t>FR.CATEGORY</t>
   </si>
   <si>
-    <t>338.17</t>
+    <t>03/08/2024</t>
+  </si>
+  <si>
+    <t>Cadeau Zus</t>
+  </si>
+  <si>
+    <t>22,95€</t>
   </si>
   <si>
     <t>04/08/2024</t>
@@ -100,10 +268,13 @@
     <t>FR.11</t>
   </si>
   <si>
-    <t>116.38</t>
-  </si>
-  <si>
-    <t>25.33</t>
+    <t>(Split 2/2) Terugbetaling uitgaven Lh / Overgemaakt</t>
+  </si>
+  <si>
+    <t>116,38€</t>
+  </si>
+  <si>
+    <t>152.08</t>
   </si>
   <si>
     <t>06/08/2024</t>
@@ -121,10 +292,10 @@
     <t xml:space="preserve">FR.9 </t>
   </si>
   <si>
-    <t>27.83</t>
-  </si>
-  <si>
-    <t>30.83</t>
+    <t>154.58</t>
+  </si>
+  <si>
+    <t>157.58</t>
   </si>
   <si>
     <t>09/08/2024</t>
@@ -133,9 +304,6 @@
     <t>Vervoer Lourdes</t>
   </si>
   <si>
-    <t>3,00€</t>
-  </si>
-  <si>
     <t>16/08/2024</t>
   </si>
   <si>
@@ -145,7 +313,7 @@
     <t>7,60€</t>
   </si>
   <si>
-    <t>60.83</t>
+    <t>187.58</t>
   </si>
   <si>
     <t>20/08/2024</t>
@@ -157,12 +325,6 @@
     <t>123,00€</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>FR.10</t>
-  </si>
-  <si>
     <t>22/08/2024</t>
   </si>
   <si>
@@ -170,12 +332,6 @@
   </si>
   <si>
     <t>439,20€</t>
-  </si>
-  <si>
-    <t>Av</t>
-  </si>
-  <si>
-    <t>FR.Av</t>
   </si>
 </sst>
 </file>
@@ -507,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -518,249 +674,636 @@
         <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="D2" t="s">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="H8" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H9" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H10" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G12" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>53</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" t="s">
+        <v>79</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F22" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>97</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D26" t="s">
+        <v>102</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>37</v>
+      </c>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" t="s">
+        <v>105</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/y2e/simple1.xlsx
+++ b/y2e/simple1.xlsx
@@ -14,57 +14,62 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="221">
+  <si>
+    <t>01/05/2025</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>Zakgeld + Pension</t>
+  </si>
+  <si>
+    <t>425,00€</t>
+  </si>
+  <si>
+    <t>0,00€</t>
+  </si>
+  <si>
+    <t>2-FR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.21
+</t>
+  </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>9.99</t>
-  </si>
-  <si>
-    <t>14.19</t>
-  </si>
-  <si>
-    <t>20.189999</t>
-  </si>
-  <si>
-    <t>25.07</t>
-  </si>
-  <si>
-    <t>27.56</t>
-  </si>
-  <si>
-    <t>09/07/2024</t>
-  </si>
-  <si>
-    <t>FR</t>
-  </si>
-  <si>
-    <t>Betaling CA + Zakgeld</t>
-  </si>
-  <si>
-    <t>2200,00€</t>
-  </si>
-  <si>
-    <t>0,00€</t>
-  </si>
-  <si>
-    <t>2-FR</t>
-  </si>
-  <si>
-    <t>Av</t>
-  </si>
-  <si>
-    <t>FR.Av</t>
-  </si>
-  <si>
-    <t>Vervoer vliegveld intermodal</t>
-  </si>
-  <si>
-    <t>3,00€</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>680</t>
+  </si>
+  <si>
+    <t>02/05/2025</t>
+  </si>
+  <si>
+    <t>ErasmusBeurs</t>
+  </si>
+  <si>
+    <t>616,00€</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>FR.15</t>
+  </si>
+  <si>
+    <t>Vervoer scooters rome</t>
+  </si>
+  <si>
+    <t>14,71€</t>
   </si>
   <si>
     <t>12</t>
@@ -73,148 +78,31 @@
     <t>FR.12</t>
   </si>
   <si>
-    <t>Cadeau Dames afscheid</t>
-  </si>
-  <si>
-    <t>4,50€</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>FR.15</t>
-  </si>
-  <si>
-    <t>62.559998</t>
-  </si>
-  <si>
-    <t>12/07/2024</t>
-  </si>
-  <si>
-    <t>Cadeau Thomas</t>
-  </si>
-  <si>
-    <t>6,90€</t>
-  </si>
-  <si>
-    <t>69.759995</t>
-  </si>
-  <si>
-    <t>17/07/2024</t>
-  </si>
-  <si>
-    <t>Ticket (Later geannuleerd)</t>
-  </si>
-  <si>
-    <t>37,70€</t>
-  </si>
-  <si>
-    <t>75.45999</t>
-  </si>
-  <si>
-    <t>19/07/2024</t>
-  </si>
-  <si>
-    <t>Fiets repair kit (terugbetaald later)</t>
-  </si>
-  <si>
-    <t>6,00€</t>
-  </si>
-  <si>
-    <t>Lenzen</t>
-  </si>
-  <si>
-    <t>52,00€</t>
+    <t>119</t>
+  </si>
+  <si>
+    <t>1170</t>
   </si>
   <si>
     <t>10</t>
   </si>
   <si>
-    <t>FR.10</t>
-  </si>
-  <si>
-    <t>22/07/2024</t>
-  </si>
-  <si>
-    <t>Zorggeld</t>
-  </si>
-  <si>
-    <t>124,00€</t>
-  </si>
-  <si>
-    <t>Anulering reis</t>
-  </si>
-  <si>
-    <t>24/07/2024</t>
-  </si>
-  <si>
-    <t>Studentenfinanciering</t>
-  </si>
-  <si>
-    <t>466,69€</t>
-  </si>
-  <si>
-    <t>81.009995</t>
-  </si>
-  <si>
-    <t>26/07/2024</t>
-  </si>
-  <si>
-    <t>123,95€</t>
-  </si>
-  <si>
-    <t>5.08</t>
-  </si>
-  <si>
-    <t>98.009995</t>
-  </si>
-  <si>
-    <t>117.509995</t>
-  </si>
-  <si>
-    <t>119.259995</t>
-  </si>
-  <si>
-    <t>126.24999</t>
-  </si>
-  <si>
-    <t>30/07/2024</t>
-  </si>
-  <si>
-    <t>Cadeau verjaardag Moeder</t>
-  </si>
-  <si>
-    <t>19,00€</t>
-  </si>
-  <si>
-    <t>126.74999</t>
-  </si>
-  <si>
-    <t>130.25</t>
-  </si>
-  <si>
-    <t>134.08</t>
-  </si>
-  <si>
-    <t>149.08</t>
-  </si>
-  <si>
-    <t>01/08/2024</t>
-  </si>
-  <si>
-    <t>Inschrijfgeld Aken</t>
-  </si>
-  <si>
-    <t>304,47€</t>
-  </si>
-  <si>
-    <t>02/08/2024</t>
-  </si>
-  <si>
-    <t>2,95 transfer geld</t>
-  </si>
-  <si>
-    <t>2,95€</t>
+    <t>124.58</t>
+  </si>
+  <si>
+    <t>127.46</t>
+  </si>
+  <si>
+    <t>133.15</t>
+  </si>
+  <si>
+    <t>12/05/2025</t>
+  </si>
+  <si>
+    <t>Ketting spannen</t>
+  </si>
+  <si>
+    <t>20,00€</t>
   </si>
   <si>
     <t>13</t>
@@ -223,16 +111,479 @@
     <t>FR.13</t>
   </si>
   <si>
-    <t>15.83</t>
-  </si>
-  <si>
-    <t>Benzine</t>
-  </si>
-  <si>
-    <t>55,41€</t>
-  </si>
-  <si>
-    <t>Contant nodig voor reis</t>
+    <t>137.65</t>
+  </si>
+  <si>
+    <t>143.65</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>161.65</t>
+  </si>
+  <si>
+    <t>163.64</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>Reis Vienna</t>
+  </si>
+  <si>
+    <t>1976,00€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.15
+</t>
+  </si>
+  <si>
+    <t>Studiefinanciering</t>
+  </si>
+  <si>
+    <t>314,00€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.20
+</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>25/05/2025</t>
+  </si>
+  <si>
+    <t>Vliegen Dublin</t>
+  </si>
+  <si>
+    <t>183,33€</t>
+  </si>
+  <si>
+    <t>203.54001</t>
+  </si>
+  <si>
+    <t>26/05/2025</t>
+  </si>
+  <si>
+    <t>Vervoer Vienna</t>
+  </si>
+  <si>
+    <t>384,95€</t>
+  </si>
+  <si>
+    <t>136.4</t>
+  </si>
+  <si>
+    <t>204.69</t>
+  </si>
+  <si>
+    <t>30/05/2025</t>
+  </si>
+  <si>
+    <t>Werk huisartsenpraktijk</t>
+  </si>
+  <si>
+    <t>250,08€</t>
+  </si>
+  <si>
+    <t>217.19</t>
+  </si>
+  <si>
+    <t>230.14</t>
+  </si>
+  <si>
+    <t>246.39</t>
+  </si>
+  <si>
+    <t>22.95</t>
+  </si>
+  <si>
+    <t>01/06/2025</t>
+  </si>
+  <si>
+    <t>250.39</t>
+  </si>
+  <si>
+    <t>1850</t>
+  </si>
+  <si>
+    <t>02/06/2025</t>
+  </si>
+  <si>
+    <t>Onderdeel printer</t>
+  </si>
+  <si>
+    <t>25,08€</t>
+  </si>
+  <si>
+    <t>257.59</t>
+  </si>
+  <si>
+    <t>263.87</t>
+  </si>
+  <si>
+    <t>305.22</t>
+  </si>
+  <si>
+    <t>349.72</t>
+  </si>
+  <si>
+    <t>30.42</t>
+  </si>
+  <si>
+    <t>49.22</t>
+  </si>
+  <si>
+    <t>355.41</t>
+  </si>
+  <si>
+    <t>385.52002</t>
+  </si>
+  <si>
+    <t>12/06/2025</t>
+  </si>
+  <si>
+    <t>Pascal cursus</t>
+  </si>
+  <si>
+    <t>2195,00€</t>
+  </si>
+  <si>
+    <t>198.4</t>
+  </si>
+  <si>
+    <t>391.52002</t>
+  </si>
+  <si>
+    <t>453.48</t>
+  </si>
+  <si>
+    <t>72.979996</t>
+  </si>
+  <si>
+    <t>455.25</t>
+  </si>
+  <si>
+    <t>78.979996</t>
+  </si>
+  <si>
+    <t>458.8</t>
+  </si>
+  <si>
+    <t>465.75</t>
+  </si>
+  <si>
+    <t>473.54</t>
+  </si>
+  <si>
+    <t>19/06/2025</t>
+  </si>
+  <si>
+    <t>Pak</t>
+  </si>
+  <si>
+    <t>88,90€</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>95.479996</t>
+  </si>
+  <si>
+    <t>480.53</t>
+  </si>
+  <si>
+    <t>22/06/2025</t>
+  </si>
+  <si>
+    <t>Vervoer Oostenrijk</t>
+  </si>
+  <si>
+    <t>14,90€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.
+</t>
+  </si>
+  <si>
+    <t>Bier Hendrik</t>
+  </si>
+  <si>
+    <t>16,00€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.14
+</t>
+  </si>
+  <si>
+    <t>Eten Hendrik</t>
+  </si>
+  <si>
+    <t>17,75€</t>
+  </si>
+  <si>
+    <t>125.59</t>
+  </si>
+  <si>
+    <t>23/06/2025</t>
+  </si>
+  <si>
+    <t>Water opera</t>
+  </si>
+  <si>
+    <t>9,60€</t>
+  </si>
+  <si>
+    <t>24/06/2025</t>
+  </si>
+  <si>
+    <t>Ijsje</t>
+  </si>
+  <si>
+    <t>2,90€</t>
+  </si>
+  <si>
+    <t>25/06/2025</t>
+  </si>
+  <si>
+    <t>Vervoer Voi</t>
+  </si>
+  <si>
+    <t>3,24€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.12
+</t>
+  </si>
+  <si>
+    <t>Cognac Baron</t>
+  </si>
+  <si>
+    <t>8,00€</t>
+  </si>
+  <si>
+    <t>Eten Frank Femk Hendrik</t>
+  </si>
+  <si>
+    <t>40,00€</t>
+  </si>
+  <si>
+    <t>Reis Zeeland</t>
+  </si>
+  <si>
+    <t>148,50€</t>
+  </si>
+  <si>
+    <t>520.43</t>
+  </si>
+  <si>
+    <t>27/06/2025</t>
+  </si>
+  <si>
+    <t>Reis Lime</t>
+  </si>
+  <si>
+    <t>14,30€</t>
+  </si>
+  <si>
+    <t>(Split 1/2) Joana + Alex / Shop</t>
+  </si>
+  <si>
+    <t>4,07€</t>
+  </si>
+  <si>
+    <t>(Split 2/2) Cadeaus uit wenen / Shop</t>
+  </si>
+  <si>
+    <t>50,18€</t>
+  </si>
+  <si>
+    <t>334.8</t>
+  </si>
+  <si>
+    <t>69.22</t>
+  </si>
+  <si>
+    <t>523.93</t>
+  </si>
+  <si>
+    <t>531.13</t>
+  </si>
+  <si>
+    <t>01/07/2025</t>
+  </si>
+  <si>
+    <t>535.13</t>
+  </si>
+  <si>
+    <t>79.270004</t>
+  </si>
+  <si>
+    <t>2280</t>
+  </si>
+  <si>
+    <t>550.38</t>
+  </si>
+  <si>
+    <t>406.8</t>
+  </si>
+  <si>
+    <t>557.88</t>
+  </si>
+  <si>
+    <t>584.38</t>
+  </si>
+  <si>
+    <t>585.38</t>
+  </si>
+  <si>
+    <t>656</t>
+  </si>
+  <si>
+    <t>13/07/2025</t>
+  </si>
+  <si>
+    <t>Terugbetaling kleding</t>
+  </si>
+  <si>
+    <t>683</t>
+  </si>
+  <si>
+    <t>717.36</t>
+  </si>
+  <si>
+    <t>135.59</t>
+  </si>
+  <si>
+    <t>421.8</t>
+  </si>
+  <si>
+    <t>722.36</t>
+  </si>
+  <si>
+    <t>732.16</t>
+  </si>
+  <si>
+    <t>733.25</t>
+  </si>
+  <si>
+    <t>83.670006</t>
+  </si>
+  <si>
+    <t>738.24</t>
+  </si>
+  <si>
+    <t>393</t>
+  </si>
+  <si>
+    <t>749.16</t>
+  </si>
+  <si>
+    <t>774.66</t>
+  </si>
+  <si>
+    <t>22/07/2025</t>
+  </si>
+  <si>
+    <t>Cadeau Joana</t>
+  </si>
+  <si>
+    <t>37,99€</t>
+  </si>
+  <si>
+    <t>86.05</t>
+  </si>
+  <si>
+    <t>24/07/2025</t>
+  </si>
+  <si>
+    <t>25/07/2025</t>
+  </si>
+  <si>
+    <t>Zingen Pim</t>
+  </si>
+  <si>
+    <t>224,00€</t>
+  </si>
+  <si>
+    <t>237,16€</t>
+  </si>
+  <si>
+    <t>26/07/2025</t>
+  </si>
+  <si>
+    <t>Terugbetaling Maria Pim</t>
+  </si>
+  <si>
+    <t>101,64€</t>
+  </si>
+  <si>
+    <t>785.83997</t>
+  </si>
+  <si>
+    <t>261.97</t>
+  </si>
+  <si>
+    <t>788.82996</t>
+  </si>
+  <si>
+    <t>796.02997</t>
+  </si>
+  <si>
+    <t>558.19995</t>
+  </si>
+  <si>
+    <t>92.66</t>
+  </si>
+  <si>
+    <t>811.02997</t>
+  </si>
+  <si>
+    <t>811.72</t>
+  </si>
+  <si>
+    <t>829.11</t>
+  </si>
+  <si>
+    <t>856.58997</t>
+  </si>
+  <si>
+    <t>98.07001</t>
+  </si>
+  <si>
+    <t>872.83997</t>
+  </si>
+  <si>
+    <t>31/07/2025</t>
+  </si>
+  <si>
+    <t>Revolut upping</t>
   </si>
   <si>
     <t>100,00€</t>
@@ -244,94 +595,102 @@
     <t>FR.CATEGORY</t>
   </si>
   <si>
-    <t>03/08/2024</t>
-  </si>
-  <si>
-    <t>Cadeau Zus</t>
-  </si>
-  <si>
-    <t>22,95€</t>
-  </si>
-  <si>
-    <t>04/08/2024</t>
-  </si>
-  <si>
-    <t>(Split 1/2) Terugebetaling uitgaven club / Overgemaakt</t>
-  </si>
-  <si>
-    <t>394,57€</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>FR.11</t>
-  </si>
-  <si>
-    <t>(Split 2/2) Terugbetaling uitgaven Lh / Overgemaakt</t>
-  </si>
-  <si>
-    <t>116,38€</t>
-  </si>
-  <si>
-    <t>152.08</t>
-  </si>
-  <si>
-    <t>06/08/2024</t>
-  </si>
-  <si>
-    <t>Semester betaling</t>
-  </si>
-  <si>
-    <t>2000,00€</t>
-  </si>
-  <si>
-    <t xml:space="preserve">9 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">FR.9 </t>
-  </si>
-  <si>
-    <t>154.58</t>
-  </si>
-  <si>
-    <t>157.58</t>
-  </si>
-  <si>
-    <t>09/08/2024</t>
-  </si>
-  <si>
-    <t>Vervoer Lourdes</t>
-  </si>
-  <si>
-    <t>16/08/2024</t>
-  </si>
-  <si>
-    <t>Laatste delen snelnwegen spanje betaling</t>
-  </si>
-  <si>
-    <t>7,60€</t>
-  </si>
-  <si>
-    <t>187.58</t>
-  </si>
-  <si>
-    <t>20/08/2024</t>
-  </si>
-  <si>
-    <t>Zorgtoeslag</t>
-  </si>
-  <si>
-    <t>123,00€</t>
-  </si>
-  <si>
-    <t>22/08/2024</t>
-  </si>
-  <si>
-    <t>Studiefinanciering</t>
-  </si>
-  <si>
-    <t>439,20€</t>
+    <t>01/08/2025</t>
+  </si>
+  <si>
+    <t>Uitbetaling werk</t>
+  </si>
+  <si>
+    <t>872,00€</t>
+  </si>
+  <si>
+    <t>876.83997</t>
+  </si>
+  <si>
+    <t>03/08/2025</t>
+  </si>
+  <si>
+    <t>Terugbetaling Jose</t>
+  </si>
+  <si>
+    <t>112,00€</t>
+  </si>
+  <si>
+    <t>Goedmaking FSR</t>
+  </si>
+  <si>
+    <t>70,00€</t>
+  </si>
+  <si>
+    <t>276.97</t>
+  </si>
+  <si>
+    <t>891.93994</t>
+  </si>
+  <si>
+    <t>16/08/2025</t>
+  </si>
+  <si>
+    <t>Terugbetaling Pedro</t>
+  </si>
+  <si>
+    <t>524</t>
+  </si>
+  <si>
+    <t>905.93994</t>
+  </si>
+  <si>
+    <t>22/08/2025</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>3530</t>
+  </si>
+  <si>
+    <t>289.27</t>
+  </si>
+  <si>
+    <t>107.07001</t>
+  </si>
+  <si>
+    <t>923.68994</t>
+  </si>
+  <si>
+    <t>963.58997</t>
+  </si>
+  <si>
+    <t>967.36</t>
+  </si>
+  <si>
+    <t>694.6</t>
+  </si>
+  <si>
+    <t>01/09/2025</t>
+  </si>
+  <si>
+    <t>144,00€</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FR.2-
+</t>
+  </si>
+  <si>
+    <t>971.36</t>
+  </si>
+  <si>
+    <t>978.56</t>
+  </si>
+  <si>
+    <t>1045.95</t>
+  </si>
+  <si>
+    <t>1051.44</t>
   </si>
 </sst>
 </file>
@@ -663,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -671,639 +1030,1108 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="D1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E1" t="s">
-        <v>99</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="D2" t="s">
-        <v>0</v>
+        <v>202</v>
       </c>
       <c r="E2" t="s">
-        <v>69</v>
+        <v>212</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="D5" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
       <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-      <c r="H5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>18</v>
+        <v>205</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" t="s">
         <v>30</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H13" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H14" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G16" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H16" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G17" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H18" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>74</v>
+        <v>29</v>
       </c>
       <c r="H19" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="D21" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>82</v>
+        <v>29</v>
       </c>
       <c r="H21" t="s">
-        <v>83</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G22" t="s">
-        <v>21</v>
+        <v>98</v>
       </c>
       <c r="H22" t="s">
-        <v>22</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G23" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="H23" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>105</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="H24" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
       <c r="F25" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>102</v>
       </c>
       <c r="H25" t="s">
-        <v>18</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="G26" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H26" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
+        <v>110</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" t="s">
         <v>103</v>
       </c>
-      <c r="B27" t="s">
-        <v>8</v>
-      </c>
-      <c r="C27" t="s">
-        <v>104</v>
-      </c>
-      <c r="D27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" t="s">
-        <v>13</v>
-      </c>
-      <c r="H27" t="s">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" t="s">
+        <v>113</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" t="s">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>116</v>
+      </c>
+      <c r="H28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>102</v>
+      </c>
+      <c r="H29" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>102</v>
+      </c>
+      <c r="H30" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>123</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>29</v>
+      </c>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>126</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>127</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>116</v>
+      </c>
+      <c r="H32" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
         <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>130</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>131</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>102</v>
+      </c>
+      <c r="H34" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>6</v>
+      </c>
+      <c r="H35" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" t="s">
+        <v>146</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>29</v>
+      </c>
+      <c r="H36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>161</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>162</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" t="s">
+        <v>164</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>43</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>44</v>
+      </c>
+      <c r="H38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>14</v>
+      </c>
+      <c r="H39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>166</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" t="s">
+        <v>169</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>170</v>
+      </c>
+      <c r="D41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" t="s">
+        <v>184</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>186</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>187</v>
+      </c>
+      <c r="H42" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" t="s">
+        <v>189</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>190</v>
+      </c>
+      <c r="D43" t="s">
+        <v>191</v>
+      </c>
+      <c r="E43" t="s">
+        <v>4</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>44</v>
+      </c>
+      <c r="H43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>194</v>
+      </c>
+      <c r="D44" t="s">
+        <v>195</v>
+      </c>
+      <c r="E44" t="s">
+        <v>4</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" t="s">
+        <v>193</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>196</v>
+      </c>
+      <c r="D45" t="s">
+        <v>197</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+      <c r="H45" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>201</v>
+      </c>
+      <c r="D46" t="s">
+        <v>195</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" t="s">
+        <v>204</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>43</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>44</v>
+      </c>
+      <c r="H47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" t="s">
+        <v>213</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>44</v>
+      </c>
+      <c r="H48" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" t="s">
+        <v>213</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
+      </c>
+      <c r="D49" t="s">
+        <v>214</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
